--- a/UIAutomation/target/classes/com/test/automation/UIAutomation/data/TestData.xlsx
+++ b/UIAutomation/target/classes/com/test/automation/UIAutomation/data/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
   <si>
     <t>userName</t>
   </si>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,11 +454,71 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/UIAutomation/target/classes/com/test/automation/UIAutomation/data/TestData.xlsx
+++ b/UIAutomation/target/classes/com/test/automation/UIAutomation/data/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>userName</t>
   </si>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,71 +454,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/UIAutomation/target/classes/com/test/automation/UIAutomation/data/TestData.xlsx
+++ b/UIAutomation/target/classes/com/test/automation/UIAutomation/data/TestData.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium Projects\UIAutomation\src\main\java\com\test\automation\UIAutomation\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="5775"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginTestData" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginTestData" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:R17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -100,10 +96,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -422,90 +419,90 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/UIAutomation/target/classes/com/test/automation/UIAutomation/data/TestData.xlsx
+++ b/UIAutomation/target/classes/com/test/automation/UIAutomation/data/TestData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="5775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginTestData" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:R17"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>userName</t>
   </si>
@@ -136,7 +135,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -148,7 +147,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -195,23 +194,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -247,23 +229,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -416,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,49 +438,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
     <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/UIAutomation/target/classes/com/test/automation/UIAutomation/data/TestData.xlsx
+++ b/UIAutomation/target/classes/com/test/automation/UIAutomation/data/TestData.xlsx
@@ -1,13 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium Projects\UIAutomation\src\main\java\com\test\automation\UIAutomation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginTestData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>userName</t>
   </si>
@@ -95,11 +100,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -135,7 +139,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -147,7 +151,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -194,6 +198,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -229,6 +250,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -381,70 +419,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/UIAutomation/target/classes/com/test/automation/UIAutomation/data/TestData.xlsx
+++ b/UIAutomation/target/classes/com/test/automation/UIAutomation/data/TestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium Projects\UIAutomation\src\main\java\com\test\automation\UIAutomation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravilella\git\ravilella12\UIAutomation\src\main\java\com\test\automation\UIAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>userName</t>
   </si>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,11 +454,35 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/UIAutomation/target/classes/com/test/automation/UIAutomation/data/TestData.xlsx
+++ b/UIAutomation/target/classes/com/test/automation/UIAutomation/data/TestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravilella\git\ravilella12\UIAutomation\src\main\java\com\test\automation\UIAutomation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium Projects\UIAutomation\src\main\java\com\test\automation\UIAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
   <si>
     <t>userName</t>
   </si>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,13 +476,49 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
     <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/UIAutomation/target/classes/com/test/automation/UIAutomation/data/TestData.xlsx
+++ b/UIAutomation/target/classes/com/test/automation/UIAutomation/data/TestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium Projects\UIAutomation\src\main\java\com\test\automation\UIAutomation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravilella\git\ravilella12\UIAutomation\src\main\java\com\test\automation\UIAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>userName</t>
   </si>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,49 +476,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
     <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>